--- a/Pricing Logic/WS_uploads/manual/output_1222_chunk_3.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1222_chunk_3.xlsx
@@ -505,7 +505,7 @@
     <t>بيتي  عصير مانجو كوكتيل محلي بالعسل - 50% سكر اقل Bee 225 مل</t>
   </si>
   <si>
-    <t>بسكويت اوريو بالكاكاو و الفانيليا فاميلى للمشاركة حجم جديد 14 قطعة - 122.5 جم</t>
+    <t>بسكويت اوريو بالكاكاو و الفانيليا فاميلى للمشاركة حجم جديد 6 عبوات - 112 جم</t>
   </si>
   <si>
     <t>سباجيتوس اكسترا شعرية حلوة بطعم الفراولة - 3 جنية</t>
@@ -7334,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>398.75</v>
+        <v>398.5</v>
       </c>
       <c r="E30" t="s">
         <v>2148</v>
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="E31" t="s">
         <v>2147</v>
@@ -7368,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>398.75</v>
+        <v>398.5</v>
       </c>
       <c r="E32" t="s">
         <v>2148</v>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="E33" t="s">
         <v>2147</v>
@@ -7402,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>413.75</v>
+        <v>413.5</v>
       </c>
       <c r="E34" t="s">
         <v>2148</v>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>4965</v>
+        <v>4962</v>
       </c>
       <c r="E35" t="s">
         <v>2147</v>
@@ -7436,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E36" t="s">
         <v>2148</v>
@@ -7453,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E37" t="s">
         <v>2147</v>
@@ -7470,7 +7470,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E38" t="s">
         <v>2148</v>
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E39" t="s">
         <v>2147</v>
@@ -7504,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>408.25</v>
+        <v>408</v>
       </c>
       <c r="E40" t="s">
         <v>2148</v>
@@ -7521,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>4899</v>
+        <v>4896</v>
       </c>
       <c r="E41" t="s">
         <v>2147</v>
@@ -7538,7 +7538,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>408.25</v>
+        <v>408</v>
       </c>
       <c r="E42" t="s">
         <v>2148</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>4899</v>
+        <v>4896</v>
       </c>
       <c r="E43" t="s">
         <v>2147</v>
@@ -7572,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>474.5</v>
+        <v>474.25</v>
       </c>
       <c r="E44" t="s">
         <v>2148</v>
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>5694</v>
+        <v>5691</v>
       </c>
       <c r="E45" t="s">
         <v>2147</v>
@@ -8082,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>24.01386689681935</v>
+        <v>23.81478041860019</v>
       </c>
       <c r="E74" t="s">
         <v>2148</v>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>288.1664027618323</v>
+        <v>285.7773650232023</v>
       </c>
       <c r="E75" t="s">
         <v>2147</v>
@@ -8388,7 +8388,7 @@
         <v>3</v>
       </c>
       <c r="D92">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E92" t="s">
         <v>2148</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E93" t="s">
         <v>2147</v>
@@ -8422,7 +8422,7 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>399.75</v>
+        <v>399.5</v>
       </c>
       <c r="E94" t="s">
         <v>2148</v>
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>4797</v>
+        <v>4794</v>
       </c>
       <c r="E95" t="s">
         <v>2147</v>
@@ -8524,7 +8524,7 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>125.25</v>
+        <v>125.75</v>
       </c>
       <c r="E100" t="s">
         <v>2148</v>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>751.5</v>
+        <v>754.5</v>
       </c>
       <c r="E101" t="s">
         <v>2147</v>
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>84.25</v>
+        <v>83.5</v>
       </c>
       <c r="E129" t="s">
         <v>2147</v>
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>206.0781616846951</v>
+        <v>201.9322195939165</v>
       </c>
       <c r="E150" t="s">
         <v>2147</v>
@@ -9425,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>203.25</v>
+        <v>202.75</v>
       </c>
       <c r="E153" t="s">
         <v>2147</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="D165">
-        <v>428.75</v>
+        <v>428.5</v>
       </c>
       <c r="E165" t="s">
         <v>2148</v>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>5145</v>
+        <v>5142</v>
       </c>
       <c r="E166" t="s">
         <v>2147</v>
@@ -9663,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="D167">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E167" t="s">
         <v>2148</v>
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E168" t="s">
         <v>2147</v>
@@ -9935,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E183" t="s">
         <v>2147</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="D184">
-        <v>96.25</v>
+        <v>96</v>
       </c>
       <c r="E184" t="s">
         <v>2148</v>
@@ -9969,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1732.5</v>
+        <v>1728</v>
       </c>
       <c r="E185" t="s">
         <v>2147</v>
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>84.5</v>
+        <v>84.25</v>
       </c>
       <c r="E186" t="s">
         <v>2148</v>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1521</v>
+        <v>1516.5</v>
       </c>
       <c r="E187" t="s">
         <v>2147</v>
@@ -10054,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="E190" t="s">
         <v>2148</v>
@@ -10071,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E191" t="s">
         <v>2147</v>
@@ -10088,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="E192" t="s">
         <v>2148</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E193" t="s">
         <v>2147</v>
@@ -10122,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="D194">
-        <v>132.25</v>
+        <v>131.75</v>
       </c>
       <c r="E194" t="s">
         <v>2148</v>
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="E195" t="s">
         <v>2147</v>
@@ -10190,7 +10190,7 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>74.75</v>
+        <v>74.5</v>
       </c>
       <c r="E198" t="s">
         <v>2148</v>
@@ -10207,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1345.5</v>
+        <v>1341</v>
       </c>
       <c r="E199" t="s">
         <v>2147</v>
@@ -10224,7 +10224,7 @@
         <v>2</v>
       </c>
       <c r="D200">
-        <v>82.25</v>
+        <v>82</v>
       </c>
       <c r="E200" t="s">
         <v>2148</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1480.5</v>
+        <v>1476</v>
       </c>
       <c r="E201" t="s">
         <v>2147</v>
@@ -10258,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>84.25</v>
+        <v>84</v>
       </c>
       <c r="E202" t="s">
         <v>2148</v>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1516.5</v>
+        <v>1512</v>
       </c>
       <c r="E203" t="s">
         <v>2147</v>
@@ -10989,7 +10989,7 @@
         <v>3</v>
       </c>
       <c r="D245">
-        <v>780.75</v>
+        <v>777.5</v>
       </c>
       <c r="E245" t="s">
         <v>2148</v>
@@ -11006,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>7807.5</v>
+        <v>7775</v>
       </c>
       <c r="E246" t="s">
         <v>2147</v>
@@ -12213,7 +12213,7 @@
         <v>23</v>
       </c>
       <c r="D317">
-        <v>122.7297821252691</v>
+        <v>122.6703093123772</v>
       </c>
       <c r="E317" t="s">
         <v>2148</v>
@@ -12230,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>2945.514771006458</v>
+        <v>2944.087423497053</v>
       </c>
       <c r="E318" t="s">
         <v>2147</v>
@@ -12893,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="D357">
-        <v>126.75</v>
+        <v>125</v>
       </c>
       <c r="E357" t="s">
         <v>2147</v>
@@ -13590,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="D398">
-        <v>313.75</v>
+        <v>313.25</v>
       </c>
       <c r="E398" t="s">
         <v>2147</v>
@@ -13947,7 +13947,7 @@
         <v>3</v>
       </c>
       <c r="D419">
-        <v>54.3514893453157</v>
+        <v>54.35208933648521</v>
       </c>
       <c r="E419" t="s">
         <v>2148</v>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="D420">
-        <v>652.2178721437883</v>
+        <v>652.2250720378224</v>
       </c>
       <c r="E420" t="s">
         <v>2147</v>
@@ -14219,7 +14219,7 @@
         <v>3</v>
       </c>
       <c r="D435">
-        <v>128.2449038962344</v>
+        <v>127.918580985557</v>
       </c>
       <c r="E435" t="s">
         <v>2147</v>
@@ -14236,7 +14236,7 @@
         <v>3</v>
       </c>
       <c r="D436">
-        <v>128.4246661627047</v>
+        <v>128.09788584168</v>
       </c>
       <c r="E436" t="s">
         <v>2147</v>
@@ -14253,7 +14253,7 @@
         <v>3</v>
       </c>
       <c r="D437">
-        <v>132.25</v>
+        <v>132</v>
       </c>
       <c r="E437" t="s">
         <v>2147</v>
@@ -14270,7 +14270,7 @@
         <v>3</v>
       </c>
       <c r="D438">
-        <v>133.5</v>
+        <v>133.25</v>
       </c>
       <c r="E438" t="s">
         <v>2147</v>
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="D439">
-        <v>133.75</v>
+        <v>133.25</v>
       </c>
       <c r="E439" t="s">
         <v>2147</v>
@@ -14899,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>657.5</v>
+        <v>657.75</v>
       </c>
       <c r="E475" t="s">
         <v>2147</v>
@@ -14967,7 +14967,7 @@
         <v>7</v>
       </c>
       <c r="D479">
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="E479" t="s">
         <v>2148</v>
@@ -14984,7 +14984,7 @@
         <v>2</v>
       </c>
       <c r="D480">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E480" t="s">
         <v>2147</v>
@@ -15715,7 +15715,7 @@
         <v>2</v>
       </c>
       <c r="D523">
-        <v>66.75</v>
+        <v>66.5</v>
       </c>
       <c r="E523" t="s">
         <v>2148</v>
@@ -15732,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="D524">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E524" t="s">
         <v>2147</v>
@@ -15766,7 +15766,7 @@
         <v>2</v>
       </c>
       <c r="D526">
-        <v>75.5</v>
+        <v>75.25</v>
       </c>
       <c r="E526" t="s">
         <v>2148</v>
@@ -15783,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="D527">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E527" t="s">
         <v>2147</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="D528">
-        <v>591.5</v>
+        <v>589.75</v>
       </c>
       <c r="E528" t="s">
         <v>2147</v>
@@ -16174,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="D550">
-        <v>237</v>
+        <v>237.25</v>
       </c>
       <c r="E550" t="s">
         <v>2147</v>
@@ -17330,7 +17330,7 @@
         <v>29</v>
       </c>
       <c r="D618">
-        <v>314.75</v>
+        <v>314.25</v>
       </c>
       <c r="E618" t="s">
         <v>2147</v>
@@ -17449,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>308.0146875</v>
+        <v>306.8953125</v>
       </c>
       <c r="E625" t="s">
         <v>2147</v>
@@ -17483,7 +17483,7 @@
         <v>1</v>
       </c>
       <c r="D627">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E627" t="s">
         <v>2147</v>
@@ -17874,7 +17874,7 @@
         <v>2</v>
       </c>
       <c r="D650">
-        <v>103.75</v>
+        <v>104.25</v>
       </c>
       <c r="E650" t="s">
         <v>2147</v>
@@ -17891,7 +17891,7 @@
         <v>2</v>
       </c>
       <c r="D651">
-        <v>103.75</v>
+        <v>104.25</v>
       </c>
       <c r="E651" t="s">
         <v>2147</v>
@@ -18401,7 +18401,7 @@
         <v>3</v>
       </c>
       <c r="D681">
-        <v>24.06696536811623</v>
+        <v>24.00932661072819</v>
       </c>
       <c r="E681" t="s">
         <v>2148</v>
@@ -18418,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="D682">
-        <v>288.8035844173948</v>
+        <v>288.1119193287383</v>
       </c>
       <c r="E682" t="s">
         <v>2147</v>
@@ -18435,7 +18435,7 @@
         <v>2</v>
       </c>
       <c r="D683">
-        <v>166.25</v>
+        <v>153.75</v>
       </c>
       <c r="E683" t="s">
         <v>2147</v>
@@ -18452,7 +18452,7 @@
         <v>3</v>
       </c>
       <c r="D684">
-        <v>23.98213566345421</v>
+        <v>23.89302463975162</v>
       </c>
       <c r="E684" t="s">
         <v>2148</v>
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="D685">
-        <v>287.7856279614505</v>
+        <v>286.7162956770194</v>
       </c>
       <c r="E685" t="s">
         <v>2147</v>
@@ -18809,7 +18809,7 @@
         <v>2</v>
       </c>
       <c r="D705">
-        <v>500.75</v>
+        <v>497.75</v>
       </c>
       <c r="E705" t="s">
         <v>2147</v>
@@ -18826,7 +18826,7 @@
         <v>2</v>
       </c>
       <c r="D706">
-        <v>500.75</v>
+        <v>497.75</v>
       </c>
       <c r="E706" t="s">
         <v>2147</v>
@@ -19098,7 +19098,7 @@
         <v>2</v>
       </c>
       <c r="D722">
-        <v>315</v>
+        <v>283.75</v>
       </c>
       <c r="E722" t="s">
         <v>2147</v>
@@ -19115,7 +19115,7 @@
         <v>2</v>
       </c>
       <c r="D723">
-        <v>102.25</v>
+        <v>100.75</v>
       </c>
       <c r="E723" t="s">
         <v>2147</v>
@@ -19132,7 +19132,7 @@
         <v>2</v>
       </c>
       <c r="D724">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="E724" t="s">
         <v>2147</v>
@@ -19166,7 +19166,7 @@
         <v>2</v>
       </c>
       <c r="D726">
-        <v>107</v>
+        <v>105.75</v>
       </c>
       <c r="E726" t="s">
         <v>2147</v>
@@ -19183,7 +19183,7 @@
         <v>2</v>
       </c>
       <c r="D727">
-        <v>183.25</v>
+        <v>166.75</v>
       </c>
       <c r="E727" t="s">
         <v>2147</v>
@@ -19200,7 +19200,7 @@
         <v>1</v>
       </c>
       <c r="D728">
-        <v>427.5</v>
+        <v>427</v>
       </c>
       <c r="E728" t="s">
         <v>2147</v>
@@ -19217,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>519.5</v>
+        <v>519</v>
       </c>
       <c r="E729" t="s">
         <v>2147</v>
@@ -19421,7 +19421,7 @@
         <v>2</v>
       </c>
       <c r="D741">
-        <v>164.25</v>
+        <v>153.5</v>
       </c>
       <c r="E741" t="s">
         <v>2147</v>
@@ -19438,7 +19438,7 @@
         <v>2</v>
       </c>
       <c r="D742">
-        <v>163.75</v>
+        <v>153.25</v>
       </c>
       <c r="E742" t="s">
         <v>2147</v>
@@ -19489,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="D745">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E745" t="s">
         <v>2147</v>
@@ -19506,7 +19506,7 @@
         <v>2</v>
       </c>
       <c r="D746">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E746" t="s">
         <v>2147</v>
@@ -19523,7 +19523,7 @@
         <v>2</v>
       </c>
       <c r="D747">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E747" t="s">
         <v>2147</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="D774">
-        <v>105.25</v>
+        <v>95</v>
       </c>
       <c r="E774" t="s">
         <v>2147</v>
@@ -20866,7 +20866,7 @@
         <v>2</v>
       </c>
       <c r="D826">
-        <v>343.25</v>
+        <v>341</v>
       </c>
       <c r="E826" t="s">
         <v>2147</v>
@@ -21461,7 +21461,7 @@
         <v>3</v>
       </c>
       <c r="D861">
-        <v>48.25</v>
+        <v>47.25</v>
       </c>
       <c r="E861" t="s">
         <v>2148</v>
@@ -21478,7 +21478,7 @@
         <v>1</v>
       </c>
       <c r="D862">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E862" t="s">
         <v>2147</v>
@@ -21495,7 +21495,7 @@
         <v>3</v>
       </c>
       <c r="D863">
-        <v>47</v>
+        <v>46.75</v>
       </c>
       <c r="E863" t="s">
         <v>2148</v>
@@ -21512,7 +21512,7 @@
         <v>1</v>
       </c>
       <c r="D864">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E864" t="s">
         <v>2147</v>
@@ -21529,7 +21529,7 @@
         <v>3</v>
       </c>
       <c r="D865">
-        <v>48</v>
+        <v>46.75</v>
       </c>
       <c r="E865" t="s">
         <v>2148</v>
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="D866">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="E866" t="s">
         <v>2147</v>
@@ -21563,7 +21563,7 @@
         <v>3</v>
       </c>
       <c r="D867">
-        <v>48</v>
+        <v>46.75</v>
       </c>
       <c r="E867" t="s">
         <v>2148</v>
@@ -21580,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="D868">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="E868" t="s">
         <v>2147</v>
@@ -21597,7 +21597,7 @@
         <v>3</v>
       </c>
       <c r="D869">
-        <v>47</v>
+        <v>46.75</v>
       </c>
       <c r="E869" t="s">
         <v>2148</v>
@@ -21614,7 +21614,7 @@
         <v>1</v>
       </c>
       <c r="D870">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E870" t="s">
         <v>2147</v>
@@ -21733,7 +21733,7 @@
         <v>3</v>
       </c>
       <c r="D877">
-        <v>55.25</v>
+        <v>55.75</v>
       </c>
       <c r="E877" t="s">
         <v>2148</v>
@@ -21750,7 +21750,7 @@
         <v>1</v>
       </c>
       <c r="D878">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E878" t="s">
         <v>2147</v>
@@ -21801,7 +21801,7 @@
         <v>1</v>
       </c>
       <c r="D881">
-        <v>1217</v>
+        <v>1218.25</v>
       </c>
       <c r="E881" t="s">
         <v>2147</v>
@@ -21818,7 +21818,7 @@
         <v>1</v>
       </c>
       <c r="D882">
-        <v>399</v>
+        <v>398.5</v>
       </c>
       <c r="E882" t="s">
         <v>2147</v>
@@ -21835,7 +21835,7 @@
         <v>1</v>
       </c>
       <c r="D883">
-        <v>399.25</v>
+        <v>398.75</v>
       </c>
       <c r="E883" t="s">
         <v>2147</v>
@@ -21852,7 +21852,7 @@
         <v>1</v>
       </c>
       <c r="D884">
-        <v>748.1122998528181</v>
+        <v>747.2659205930743</v>
       </c>
       <c r="E884" t="s">
         <v>2147</v>
@@ -21869,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="D885">
-        <v>750.084857550341</v>
+        <v>749.2362466310934</v>
       </c>
       <c r="E885" t="s">
         <v>2147</v>
@@ -21886,7 +21886,7 @@
         <v>3</v>
       </c>
       <c r="D886">
-        <v>75.10834274903547</v>
+        <v>74.4539635525252</v>
       </c>
       <c r="E886" t="s">
         <v>2148</v>
@@ -21903,7 +21903,7 @@
         <v>1</v>
       </c>
       <c r="D887">
-        <v>600.8667419922838</v>
+        <v>595.6317084202016</v>
       </c>
       <c r="E887" t="s">
         <v>2147</v>
@@ -21920,7 +21920,7 @@
         <v>3</v>
       </c>
       <c r="D888">
-        <v>75.5</v>
+        <v>74.5</v>
       </c>
       <c r="E888" t="s">
         <v>2148</v>
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="D889">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E889" t="s">
         <v>2147</v>
@@ -21954,7 +21954,7 @@
         <v>3</v>
       </c>
       <c r="D890">
-        <v>74.85535261807608</v>
+        <v>74.45396355252518</v>
       </c>
       <c r="E890" t="s">
         <v>2148</v>
@@ -21971,7 +21971,7 @@
         <v>1</v>
       </c>
       <c r="D891">
-        <v>598.8428209446087</v>
+        <v>595.6317084202014</v>
       </c>
       <c r="E891" t="s">
         <v>2147</v>
@@ -21988,7 +21988,7 @@
         <v>3</v>
       </c>
       <c r="D892">
-        <v>74.75</v>
+        <v>74.5</v>
       </c>
       <c r="E892" t="s">
         <v>2148</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="D893">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E893" t="s">
         <v>2147</v>
@@ -22022,7 +22022,7 @@
         <v>7</v>
       </c>
       <c r="D894">
-        <v>20</v>
+        <v>19.75</v>
       </c>
       <c r="E894" t="s">
         <v>2148</v>
@@ -22039,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="D895">
-        <v>200</v>
+        <v>197.5</v>
       </c>
       <c r="E895" t="s">
         <v>2147</v>
@@ -22090,7 +22090,7 @@
         <v>7</v>
       </c>
       <c r="D898">
-        <v>17.34424050707617</v>
+        <v>17.31557904864203</v>
       </c>
       <c r="E898" t="s">
         <v>2148</v>
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>173.4424050707617</v>
+        <v>173.1557904864203</v>
       </c>
       <c r="E899" t="s">
         <v>2147</v>
@@ -22124,7 +22124,7 @@
         <v>7</v>
       </c>
       <c r="D900">
-        <v>17.34428691687953</v>
+        <v>17.31567570929341</v>
       </c>
       <c r="E900" t="s">
         <v>2148</v>
@@ -22141,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="D901">
-        <v>173.4428691687953</v>
+        <v>173.1567570929341</v>
       </c>
       <c r="E901" t="s">
         <v>2147</v>
@@ -22566,7 +22566,7 @@
         <v>2</v>
       </c>
       <c r="D926">
-        <v>99.23816323732454</v>
+        <v>98.86172750582728</v>
       </c>
       <c r="E926" t="s">
         <v>2147</v>
@@ -22617,7 +22617,7 @@
         <v>2</v>
       </c>
       <c r="D929">
-        <v>100.9598905644091</v>
+        <v>100.5492044230201</v>
       </c>
       <c r="E929" t="s">
         <v>2147</v>
@@ -22821,7 +22821,7 @@
         <v>2</v>
       </c>
       <c r="D941">
-        <v>54</v>
+        <v>53.75</v>
       </c>
       <c r="E941" t="s">
         <v>2147</v>
@@ -22838,7 +22838,7 @@
         <v>2</v>
       </c>
       <c r="D942">
-        <v>53.91079495680739</v>
+        <v>53.81162052171234</v>
       </c>
       <c r="E942" t="s">
         <v>2147</v>
@@ -22855,7 +22855,7 @@
         <v>2</v>
       </c>
       <c r="D943">
-        <v>52</v>
+        <v>52.25</v>
       </c>
       <c r="E943" t="s">
         <v>2147</v>
@@ -22889,7 +22889,7 @@
         <v>3</v>
       </c>
       <c r="D945">
-        <v>99.5</v>
+        <v>100.75</v>
       </c>
       <c r="E945" t="s">
         <v>2148</v>
@@ -22906,7 +22906,7 @@
         <v>1</v>
       </c>
       <c r="D946">
-        <v>1592</v>
+        <v>1612</v>
       </c>
       <c r="E946" t="s">
         <v>2147</v>
@@ -23433,7 +23433,7 @@
         <v>12</v>
       </c>
       <c r="D977">
-        <v>806.25</v>
+        <v>805.5</v>
       </c>
       <c r="E977" t="s">
         <v>2147</v>
@@ -23484,7 +23484,7 @@
         <v>1</v>
       </c>
       <c r="D980">
-        <v>381.1095918367347</v>
+        <v>381.0170589161043</v>
       </c>
       <c r="E980" t="s">
         <v>2147</v>
@@ -23501,7 +23501,7 @@
         <v>1</v>
       </c>
       <c r="D981">
-        <v>381.3055710575139</v>
+        <v>381.2129905533798</v>
       </c>
       <c r="E981" t="s">
         <v>2147</v>
@@ -23518,7 +23518,7 @@
         <v>1</v>
       </c>
       <c r="D982">
-        <v>534.25</v>
+        <v>534</v>
       </c>
       <c r="E982" t="s">
         <v>2147</v>
@@ -23535,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="D983">
-        <v>398.5</v>
+        <v>398.25</v>
       </c>
       <c r="E983" t="s">
         <v>2147</v>
@@ -23552,7 +23552,7 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>747.25</v>
+        <v>746.75</v>
       </c>
       <c r="E984" t="s">
         <v>2147</v>
@@ -23569,7 +23569,7 @@
         <v>1</v>
       </c>
       <c r="D985">
-        <v>495.25</v>
+        <v>494</v>
       </c>
       <c r="E985" t="s">
         <v>2147</v>
@@ -23586,7 +23586,7 @@
         <v>1</v>
       </c>
       <c r="D986">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E986" t="s">
         <v>2147</v>
@@ -23688,7 +23688,7 @@
         <v>2</v>
       </c>
       <c r="D992">
-        <v>131.7013517302387</v>
+        <v>131.4021875</v>
       </c>
       <c r="E992" t="s">
         <v>2148</v>
@@ -23705,7 +23705,7 @@
         <v>1</v>
       </c>
       <c r="D993">
-        <v>2107.22162768382</v>
+        <v>2102.435</v>
       </c>
       <c r="E993" t="s">
         <v>2147</v>
@@ -24504,7 +24504,7 @@
         <v>3</v>
       </c>
       <c r="D1040">
-        <v>211.8089702620046</v>
+        <v>211.8088596457088</v>
       </c>
       <c r="E1040" t="s">
         <v>2148</v>
@@ -24521,7 +24521,7 @@
         <v>1</v>
       </c>
       <c r="D1041">
-        <v>847.2358810480182</v>
+        <v>847.2354385828353</v>
       </c>
       <c r="E1041" t="s">
         <v>2147</v>
@@ -24725,7 +24725,7 @@
         <v>14</v>
       </c>
       <c r="D1053">
-        <v>96.57718749999999</v>
+        <v>96.32843749999999</v>
       </c>
       <c r="E1053" t="s">
         <v>2148</v>
@@ -24742,7 +24742,7 @@
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>386.30875</v>
+        <v>385.31375</v>
       </c>
       <c r="E1054" t="s">
         <v>2147</v>
@@ -25065,7 +25065,7 @@
         <v>2</v>
       </c>
       <c r="D1073">
-        <v>447.5</v>
+        <v>446.25</v>
       </c>
       <c r="E1073" t="s">
         <v>2147</v>
@@ -28414,7 +28414,7 @@
         <v>25</v>
       </c>
       <c r="D1270">
-        <v>25.35311757224396</v>
+        <v>25.38344186208244</v>
       </c>
       <c r="E1270" t="s">
         <v>2148</v>
@@ -28431,7 +28431,7 @@
         <v>15</v>
       </c>
       <c r="D1271">
-        <v>101.4124702889758</v>
+        <v>101.5337674483298</v>
       </c>
       <c r="E1271" t="s">
         <v>2147</v>
@@ -28448,7 +28448,7 @@
         <v>1</v>
       </c>
       <c r="D1272">
-        <v>405.6498811559034</v>
+        <v>406.135069793319</v>
       </c>
       <c r="E1272" t="s">
         <v>2147</v>
@@ -29791,7 +29791,7 @@
         <v>1</v>
       </c>
       <c r="D1351">
-        <v>194.0632894239697</v>
+        <v>194.2793424246436</v>
       </c>
       <c r="E1351" t="s">
         <v>2147</v>
@@ -31423,7 +31423,7 @@
         <v>3</v>
       </c>
       <c r="D1447">
-        <v>287</v>
+        <v>286.25</v>
       </c>
       <c r="E1447" t="s">
         <v>2148</v>
@@ -31440,7 +31440,7 @@
         <v>4</v>
       </c>
       <c r="D1448">
-        <v>3444</v>
+        <v>3435</v>
       </c>
       <c r="E1448" t="s">
         <v>2147</v>
@@ -31457,7 +31457,7 @@
         <v>1</v>
       </c>
       <c r="D1449">
-        <v>6888</v>
+        <v>6870</v>
       </c>
       <c r="E1449" t="s">
         <v>2147</v>
@@ -31525,7 +31525,7 @@
         <v>3</v>
       </c>
       <c r="D1453">
-        <v>270.25</v>
+        <v>269.5</v>
       </c>
       <c r="E1453" t="s">
         <v>2148</v>
@@ -31542,7 +31542,7 @@
         <v>4</v>
       </c>
       <c r="D1454">
-        <v>1351.25</v>
+        <v>1347.5</v>
       </c>
       <c r="E1454" t="s">
         <v>2147</v>
@@ -31559,7 +31559,7 @@
         <v>1</v>
       </c>
       <c r="D1455">
-        <v>6756.25</v>
+        <v>6737.5</v>
       </c>
       <c r="E1455" t="s">
         <v>2147</v>
@@ -32681,7 +32681,7 @@
         <v>12</v>
       </c>
       <c r="D1521">
-        <v>859.75</v>
+        <v>858.75</v>
       </c>
       <c r="E1521" t="s">
         <v>2147</v>
@@ -33055,7 +33055,7 @@
         <v>1</v>
       </c>
       <c r="D1543">
-        <v>50.46633158733564</v>
+        <v>50.46633158733563</v>
       </c>
       <c r="E1543" t="s">
         <v>2147</v>
@@ -33140,7 +33140,7 @@
         <v>1</v>
       </c>
       <c r="D1548">
-        <v>50.59961962224787</v>
+        <v>50.11952834400923</v>
       </c>
       <c r="E1548" t="s">
         <v>2147</v>
@@ -33157,7 +33157,7 @@
         <v>1</v>
       </c>
       <c r="D1549">
-        <v>51.44134155294017</v>
+        <v>51.11263843427405</v>
       </c>
       <c r="E1549" t="s">
         <v>2147</v>
@@ -33208,7 +33208,7 @@
         <v>1</v>
       </c>
       <c r="D1552">
-        <v>50.82234808434593</v>
+        <v>50.46371976315942</v>
       </c>
       <c r="E1552" t="s">
         <v>2147</v>
@@ -33242,7 +33242,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>51.16058707058536</v>
+        <v>50.39677538450695</v>
       </c>
       <c r="E1554" t="s">
         <v>2147</v>
@@ -33293,7 +33293,7 @@
         <v>1</v>
       </c>
       <c r="D1557">
-        <v>50.54687178543143</v>
+        <v>49.90665142809973</v>
       </c>
       <c r="E1557" t="s">
         <v>2147</v>
@@ -33327,7 +33327,7 @@
         <v>1</v>
       </c>
       <c r="D1559">
-        <v>50.59542153465561</v>
+        <v>50.25065658963425</v>
       </c>
       <c r="E1559" t="s">
         <v>2147</v>
@@ -33633,7 +33633,7 @@
         <v>3</v>
       </c>
       <c r="D1577">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="E1577" t="s">
         <v>2148</v>
@@ -33650,7 +33650,7 @@
         <v>1</v>
       </c>
       <c r="D1578">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E1578" t="s">
         <v>2147</v>
@@ -33667,7 +33667,7 @@
         <v>3</v>
       </c>
       <c r="D1579">
-        <v>97.29457771474445</v>
+        <v>94.37574038330212</v>
       </c>
       <c r="E1579" t="s">
         <v>2148</v>
@@ -33684,7 +33684,7 @@
         <v>1</v>
       </c>
       <c r="D1580">
-        <v>1167.534932576933</v>
+        <v>1132.508884599625</v>
       </c>
       <c r="E1580" t="s">
         <v>2147</v>
@@ -33701,7 +33701,7 @@
         <v>3</v>
       </c>
       <c r="D1581">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="E1581" t="s">
         <v>2148</v>
@@ -33718,7 +33718,7 @@
         <v>1</v>
       </c>
       <c r="D1582">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="E1582" t="s">
         <v>2147</v>
@@ -33735,7 +33735,7 @@
         <v>3</v>
       </c>
       <c r="D1583">
-        <v>96.77792832560932</v>
+        <v>94.37574038330212</v>
       </c>
       <c r="E1583" t="s">
         <v>2148</v>
@@ -33752,7 +33752,7 @@
         <v>1</v>
       </c>
       <c r="D1584">
-        <v>1161.335139907312</v>
+        <v>1132.508884599625</v>
       </c>
       <c r="E1584" t="s">
         <v>2147</v>
@@ -33769,7 +33769,7 @@
         <v>3</v>
       </c>
       <c r="D1585">
-        <v>97.29457771474446</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1585" t="s">
         <v>2148</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="D1586">
-        <v>1167.534932576933</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1586" t="s">
         <v>2147</v>
@@ -33803,7 +33803,7 @@
         <v>3</v>
       </c>
       <c r="D1587">
-        <v>96.72409872936812</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1587" t="s">
         <v>2148</v>
@@ -33820,7 +33820,7 @@
         <v>1</v>
       </c>
       <c r="D1588">
-        <v>1160.689184752418</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1588" t="s">
         <v>2147</v>
@@ -33837,7 +33837,7 @@
         <v>3</v>
       </c>
       <c r="D1589">
-        <v>97.29457771474445</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1589" t="s">
         <v>2148</v>
@@ -33854,7 +33854,7 @@
         <v>1</v>
       </c>
       <c r="D1590">
-        <v>1167.534932576933</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1590" t="s">
         <v>2147</v>
@@ -33871,7 +33871,7 @@
         <v>3</v>
       </c>
       <c r="D1591">
-        <v>96.22248143951525</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1591" t="s">
         <v>2148</v>
@@ -33888,7 +33888,7 @@
         <v>1</v>
       </c>
       <c r="D1592">
-        <v>1154.669777274183</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1592" t="s">
         <v>2147</v>
@@ -33905,7 +33905,7 @@
         <v>3</v>
       </c>
       <c r="D1593">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="E1593" t="s">
         <v>2148</v>
@@ -33922,7 +33922,7 @@
         <v>1</v>
       </c>
       <c r="D1594">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E1594" t="s">
         <v>2147</v>
@@ -34347,7 +34347,7 @@
         <v>1</v>
       </c>
       <c r="D1619">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E1619" t="s">
         <v>2147</v>
@@ -35486,7 +35486,7 @@
         <v>3</v>
       </c>
       <c r="D1686">
-        <v>176.6746875</v>
+        <v>176.488125</v>
       </c>
       <c r="E1686" t="s">
         <v>2148</v>
@@ -35503,7 +35503,7 @@
         <v>1</v>
       </c>
       <c r="D1687">
-        <v>1060.048125</v>
+        <v>1058.92875</v>
       </c>
       <c r="E1687" t="s">
         <v>2147</v>
@@ -37356,7 +37356,7 @@
         <v>3</v>
       </c>
       <c r="D1796">
-        <v>24.05525591629316</v>
+        <v>23.97165719705862</v>
       </c>
       <c r="E1796" t="s">
         <v>2148</v>
@@ -37373,7 +37373,7 @@
         <v>1</v>
       </c>
       <c r="D1797">
-        <v>288.663070995518</v>
+        <v>287.6598863647034</v>
       </c>
       <c r="E1797" t="s">
         <v>2147</v>
@@ -37815,7 +37815,7 @@
         <v>1</v>
       </c>
       <c r="D1823">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E1823" t="s">
         <v>2147</v>
@@ -37832,7 +37832,7 @@
         <v>1</v>
       </c>
       <c r="D1824">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E1824" t="s">
         <v>2147</v>
@@ -37849,7 +37849,7 @@
         <v>1</v>
       </c>
       <c r="D1825">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E1825" t="s">
         <v>2147</v>
@@ -40042,7 +40042,7 @@
         <v>23</v>
       </c>
       <c r="D1954">
-        <v>40.173125</v>
+        <v>40.1109375</v>
       </c>
       <c r="E1954" t="s">
         <v>2148</v>
@@ -40059,7 +40059,7 @@
         <v>1</v>
       </c>
       <c r="D1955">
-        <v>482.0775</v>
+        <v>481.33125</v>
       </c>
       <c r="E1955" t="s">
         <v>2147</v>
@@ -40960,7 +40960,7 @@
         <v>3</v>
       </c>
       <c r="D2008">
-        <v>108.1804075001257</v>
+        <v>107.9051392876572</v>
       </c>
       <c r="E2008" t="s">
         <v>2148</v>
@@ -40977,7 +40977,7 @@
         <v>1</v>
       </c>
       <c r="D2009">
-        <v>865.4432600010056</v>
+        <v>863.2411143012574</v>
       </c>
       <c r="E2009" t="s">
         <v>2147</v>
@@ -40994,7 +40994,7 @@
         <v>3</v>
       </c>
       <c r="D2010">
-        <v>108.1002264923031</v>
+        <v>107.8251623027553</v>
       </c>
       <c r="E2010" t="s">
         <v>2148</v>
@@ -41011,7 +41011,7 @@
         <v>1</v>
       </c>
       <c r="D2011">
-        <v>864.801811938425</v>
+        <v>862.6012984220422</v>
       </c>
       <c r="E2011" t="s">
         <v>2147</v>
@@ -41028,7 +41028,7 @@
         <v>3</v>
       </c>
       <c r="D2012">
-        <v>108.1468380334011</v>
+        <v>107.871655239423</v>
       </c>
       <c r="E2012" t="s">
         <v>2148</v>
@@ -41045,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="D2013">
-        <v>865.1747042672088</v>
+        <v>862.9732419153838</v>
       </c>
       <c r="E2013" t="s">
         <v>2147</v>
@@ -41062,7 +41062,7 @@
         <v>3</v>
       </c>
       <c r="D2014">
-        <v>108.1740736509246</v>
+        <v>107.8988215551207</v>
       </c>
       <c r="E2014" t="s">
         <v>2148</v>
@@ -41079,7 +41079,7 @@
         <v>1</v>
       </c>
       <c r="D2015">
-        <v>865.3925892073966</v>
+        <v>863.1905724409655</v>
       </c>
       <c r="E2015" t="s">
         <v>2147</v>
@@ -42303,7 +42303,7 @@
         <v>1</v>
       </c>
       <c r="D2087">
-        <v>151.2439053009558</v>
+        <v>151.2439053009529</v>
       </c>
       <c r="E2087" t="s">
         <v>2147</v>
@@ -42320,7 +42320,7 @@
         <v>1</v>
       </c>
       <c r="D2088">
-        <v>151.2439053009973</v>
+        <v>151.2439053009843</v>
       </c>
       <c r="E2088" t="s">
         <v>2147</v>
@@ -42337,7 +42337,7 @@
         <v>1</v>
       </c>
       <c r="D2089">
-        <v>151.243905300955</v>
+        <v>151.2439053009528</v>
       </c>
       <c r="E2089" t="s">
         <v>2147</v>
@@ -42354,7 +42354,7 @@
         <v>1</v>
       </c>
       <c r="D2090">
-        <v>151.2439053008826</v>
+        <v>151.2439053008976</v>
       </c>
       <c r="E2090" t="s">
         <v>2147</v>
@@ -42711,7 +42711,7 @@
         <v>1</v>
       </c>
       <c r="D2111">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="E2111" t="s">
         <v>2147</v>
@@ -43544,7 +43544,7 @@
         <v>1</v>
       </c>
       <c r="D2160">
-        <v>133.025862135639</v>
+        <v>132.5375362472639</v>
       </c>
       <c r="E2160" t="s">
         <v>2147</v>
@@ -43748,7 +43748,7 @@
         <v>1</v>
       </c>
       <c r="D2172">
-        <v>282.33125</v>
+        <v>285.2756756792128</v>
       </c>
       <c r="E2172" t="s">
         <v>2147</v>
@@ -43765,7 +43765,7 @@
         <v>1</v>
       </c>
       <c r="D2173">
-        <v>282.6421875</v>
+        <v>284.1868024348345</v>
       </c>
       <c r="E2173" t="s">
         <v>2147</v>
@@ -43799,7 +43799,7 @@
         <v>1</v>
       </c>
       <c r="D2175">
-        <v>283.0775</v>
+        <v>282.455625</v>
       </c>
       <c r="E2175" t="s">
         <v>2147</v>
@@ -43816,7 +43816,7 @@
         <v>1</v>
       </c>
       <c r="D2176">
-        <v>294.9379737791553</v>
+        <v>297.5636122390484</v>
       </c>
       <c r="E2176" t="s">
         <v>2147</v>
@@ -44751,7 +44751,7 @@
         <v>1</v>
       </c>
       <c r="D2231">
-        <v>218.25</v>
+        <v>217.75</v>
       </c>
       <c r="E2231" t="s">
         <v>2147</v>
@@ -44768,7 +44768,7 @@
         <v>1</v>
       </c>
       <c r="D2232">
-        <v>507.75</v>
+        <v>506.5</v>
       </c>
       <c r="E2232" t="s">
         <v>2147</v>
@@ -44785,7 +44785,7 @@
         <v>1</v>
       </c>
       <c r="D2233">
-        <v>129</v>
+        <v>128.75</v>
       </c>
       <c r="E2233" t="s">
         <v>2147</v>
@@ -44802,7 +44802,7 @@
         <v>1</v>
       </c>
       <c r="D2234">
-        <v>133.75</v>
+        <v>133.25</v>
       </c>
       <c r="E2234" t="s">
         <v>2147</v>
@@ -44887,7 +44887,7 @@
         <v>1</v>
       </c>
       <c r="D2239">
-        <v>469.75</v>
+        <v>469</v>
       </c>
       <c r="E2239" t="s">
         <v>2147</v>
@@ -44904,7 +44904,7 @@
         <v>1</v>
       </c>
       <c r="D2240">
-        <v>469.75</v>
+        <v>469</v>
       </c>
       <c r="E2240" t="s">
         <v>2147</v>
@@ -45465,7 +45465,7 @@
         <v>2</v>
       </c>
       <c r="D2273">
-        <v>249.8497503878029</v>
+        <v>249.371875</v>
       </c>
       <c r="E2273" t="s">
         <v>2148</v>
@@ -45482,7 +45482,7 @@
         <v>1</v>
       </c>
       <c r="D2274">
-        <v>1998.798003102423</v>
+        <v>1994.975</v>
       </c>
       <c r="E2274" t="s">
         <v>2147</v>
@@ -45533,7 +45533,7 @@
         <v>2</v>
       </c>
       <c r="D2277">
-        <v>250.3249426304743</v>
+        <v>250.3046013036235</v>
       </c>
       <c r="E2277" t="s">
         <v>2148</v>
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="D2278">
-        <v>2002.599541043794</v>
+        <v>2002.436810428988</v>
       </c>
       <c r="E2278" t="s">
         <v>2147</v>
@@ -45601,7 +45601,7 @@
         <v>2</v>
       </c>
       <c r="D2281">
-        <v>247.25</v>
+        <v>246.25</v>
       </c>
       <c r="E2281" t="s">
         <v>2148</v>
@@ -45618,7 +45618,7 @@
         <v>1</v>
       </c>
       <c r="D2282">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="E2282" t="s">
         <v>2147</v>
@@ -46009,7 +46009,7 @@
         <v>23</v>
       </c>
       <c r="D2305">
-        <v>58.73972369005366</v>
+        <v>58.63721375749206</v>
       </c>
       <c r="E2305" t="s">
         <v>2148</v>
@@ -46026,7 +46026,7 @@
         <v>1</v>
       </c>
       <c r="D2306">
-        <v>1409.753368561288</v>
+        <v>1407.293130179809</v>
       </c>
       <c r="E2306" t="s">
         <v>2147</v>
@@ -46111,7 +46111,7 @@
         <v>23</v>
       </c>
       <c r="D2311">
-        <v>98.6915625</v>
+        <v>98.505</v>
       </c>
       <c r="E2311" t="s">
         <v>2148</v>
@@ -46128,7 +46128,7 @@
         <v>1</v>
       </c>
       <c r="D2312">
-        <v>1184.29875</v>
+        <v>1182.06</v>
       </c>
       <c r="E2312" t="s">
         <v>2147</v>
@@ -46485,7 +46485,7 @@
         <v>2</v>
       </c>
       <c r="D2333">
-        <v>189.75</v>
+        <v>189.25</v>
       </c>
       <c r="E2333" t="s">
         <v>2148</v>
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="D2334">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E2334" t="s">
         <v>2147</v>
@@ -47199,7 +47199,7 @@
         <v>1</v>
       </c>
       <c r="D2375">
-        <v>207.25</v>
+        <v>206.75</v>
       </c>
       <c r="E2375" t="s">
         <v>2147</v>
@@ -48406,7 +48406,7 @@
         <v>2</v>
       </c>
       <c r="D2446">
-        <v>98.8418283557418</v>
+        <v>99.14959096005954</v>
       </c>
       <c r="E2446" t="s">
         <v>2147</v>
@@ -48848,7 +48848,7 @@
         <v>1</v>
       </c>
       <c r="D2472">
-        <v>177.3770490559546</v>
+        <v>176.4500854169695</v>
       </c>
       <c r="E2472" t="s">
         <v>2147</v>
@@ -48916,7 +48916,7 @@
         <v>1</v>
       </c>
       <c r="D2476">
-        <v>271</v>
+        <v>268.25</v>
       </c>
       <c r="E2476" t="s">
         <v>2147</v>
@@ -49834,7 +49834,7 @@
         <v>7</v>
       </c>
       <c r="D2530">
-        <v>81.15656670113755</v>
+        <v>96.658</v>
       </c>
       <c r="E2530" t="s">
         <v>2148</v>
@@ -49851,7 +49851,7 @@
         <v>1</v>
       </c>
       <c r="D2531">
-        <v>1623.131334022751</v>
+        <v>1933.16</v>
       </c>
       <c r="E2531" t="s">
         <v>2147</v>
@@ -50701,7 +50701,7 @@
         <v>7</v>
       </c>
       <c r="D2581">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="E2581" t="s">
         <v>2148</v>
@@ -50718,7 +50718,7 @@
         <v>1</v>
       </c>
       <c r="D2582">
-        <v>345</v>
+        <v>352.5</v>
       </c>
       <c r="E2582" t="s">
         <v>2147</v>
@@ -50803,7 +50803,7 @@
         <v>7</v>
       </c>
       <c r="D2587">
-        <v>11.52957942796495</v>
+        <v>11.4752686532817</v>
       </c>
       <c r="E2587" t="s">
         <v>2148</v>
@@ -50820,7 +50820,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>345.8873828389486</v>
+        <v>344.2580595984509</v>
       </c>
       <c r="E2588" t="s">
         <v>2147</v>
@@ -50837,7 +50837,7 @@
         <v>7</v>
       </c>
       <c r="D2589">
-        <v>11.57024540489754</v>
+        <v>11.57048222179879</v>
       </c>
       <c r="E2589" t="s">
         <v>2148</v>
@@ -50854,7 +50854,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>347.1073621469263</v>
+        <v>347.1144666539637</v>
       </c>
       <c r="E2590" t="s">
         <v>2147</v>
@@ -51211,7 +51211,7 @@
         <v>3</v>
       </c>
       <c r="D2611">
-        <v>108.786534742655</v>
+        <v>108.7870553228315</v>
       </c>
       <c r="E2611" t="s">
         <v>2148</v>
@@ -51228,7 +51228,7 @@
         <v>1</v>
       </c>
       <c r="D2612">
-        <v>652.7192084559297</v>
+        <v>652.7223319369891</v>
       </c>
       <c r="E2612" t="s">
         <v>2147</v>
@@ -51347,7 +51347,7 @@
         <v>3</v>
       </c>
       <c r="D2619">
-        <v>46.25</v>
+        <v>45.75</v>
       </c>
       <c r="E2619" t="s">
         <v>2148</v>
@@ -51364,7 +51364,7 @@
         <v>1</v>
       </c>
       <c r="D2620">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E2620" t="s">
         <v>2147</v>
@@ -51381,7 +51381,7 @@
         <v>3</v>
       </c>
       <c r="D2621">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E2621" t="s">
         <v>2148</v>
@@ -51398,7 +51398,7 @@
         <v>1</v>
       </c>
       <c r="D2622">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E2622" t="s">
         <v>2147</v>
@@ -51483,7 +51483,7 @@
         <v>3</v>
       </c>
       <c r="D2627">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E2627" t="s">
         <v>2148</v>
@@ -51500,7 +51500,7 @@
         <v>1</v>
       </c>
       <c r="D2628">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E2628" t="s">
         <v>2147</v>
@@ -51517,7 +51517,7 @@
         <v>3</v>
       </c>
       <c r="D2629">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E2629" t="s">
         <v>2148</v>
@@ -51534,7 +51534,7 @@
         <v>1</v>
       </c>
       <c r="D2630">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E2630" t="s">
         <v>2147</v>
@@ -51619,7 +51619,7 @@
         <v>3</v>
       </c>
       <c r="D2635">
-        <v>159.9311917233294</v>
+        <v>159.8139511520282</v>
       </c>
       <c r="E2635" t="s">
         <v>2148</v>
@@ -51636,7 +51636,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>1919.174300679952</v>
+        <v>1917.767413824339</v>
       </c>
       <c r="E2636" t="s">
         <v>2147</v>
@@ -51721,7 +51721,7 @@
         <v>3</v>
       </c>
       <c r="D2641">
-        <v>93.93895922872798</v>
+        <v>93.95942567987397</v>
       </c>
       <c r="E2641" t="s">
         <v>2148</v>
@@ -51738,7 +51738,7 @@
         <v>1</v>
       </c>
       <c r="D2642">
-        <v>1127.267510744736</v>
+        <v>1127.513108158488</v>
       </c>
       <c r="E2642" t="s">
         <v>2147</v>
@@ -51755,7 +51755,7 @@
         <v>3</v>
       </c>
       <c r="D2643">
-        <v>94.02253966019524</v>
+        <v>94.02672404390594</v>
       </c>
       <c r="E2643" t="s">
         <v>2148</v>
@@ -51772,7 +51772,7 @@
         <v>1</v>
       </c>
       <c r="D2644">
-        <v>1128.270475922343</v>
+        <v>1128.320688526871</v>
       </c>
       <c r="E2644" t="s">
         <v>2147</v>
@@ -52588,7 +52588,7 @@
         <v>7</v>
       </c>
       <c r="D2692">
-        <v>11.54501955351181</v>
+        <v>11.5456643034001</v>
       </c>
       <c r="E2692" t="s">
         <v>2148</v>
@@ -52605,7 +52605,7 @@
         <v>1</v>
       </c>
       <c r="D2693">
-        <v>346.3505866053542</v>
+        <v>346.3699291020031</v>
       </c>
       <c r="E2693" t="s">
         <v>2147</v>
@@ -52622,7 +52622,7 @@
         <v>7</v>
       </c>
       <c r="D2694">
-        <v>11.5728998958233</v>
+        <v>11.57290530565689</v>
       </c>
       <c r="E2694" t="s">
         <v>2148</v>
@@ -52639,7 +52639,7 @@
         <v>1</v>
       </c>
       <c r="D2695">
-        <v>347.1869968746989</v>
+        <v>347.1871591697067</v>
       </c>
       <c r="E2695" t="s">
         <v>2147</v>
@@ -52911,7 +52911,7 @@
         <v>1</v>
       </c>
       <c r="D2711">
-        <v>237.8289557088266</v>
+        <v>238.133843243734</v>
       </c>
       <c r="E2711" t="s">
         <v>2147</v>
@@ -54492,7 +54492,7 @@
         <v>3</v>
       </c>
       <c r="D2804">
-        <v>115.75</v>
+        <v>116</v>
       </c>
       <c r="E2804" t="s">
         <v>2148</v>
@@ -54509,7 +54509,7 @@
         <v>1</v>
       </c>
       <c r="D2805">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="E2805" t="s">
         <v>2147</v>
@@ -54662,7 +54662,7 @@
         <v>3</v>
       </c>
       <c r="D2814">
-        <v>48.88838051276543</v>
+        <v>48.94159280816812</v>
       </c>
       <c r="E2814" t="s">
         <v>2148</v>
@@ -54679,7 +54679,7 @@
         <v>1</v>
       </c>
       <c r="D2815">
-        <v>586.6605661531852</v>
+        <v>587.2991136980174</v>
       </c>
       <c r="E2815" t="s">
         <v>2147</v>
@@ -56124,7 +56124,7 @@
         <v>3</v>
       </c>
       <c r="D2900">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E2900" t="s">
         <v>2148</v>
@@ -56141,7 +56141,7 @@
         <v>1</v>
       </c>
       <c r="D2901">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E2901" t="s">
         <v>2147</v>
@@ -56158,7 +56158,7 @@
         <v>3</v>
       </c>
       <c r="D2902">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E2902" t="s">
         <v>2148</v>
@@ -56175,7 +56175,7 @@
         <v>1</v>
       </c>
       <c r="D2903">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E2903" t="s">
         <v>2147</v>
@@ -56192,7 +56192,7 @@
         <v>3</v>
       </c>
       <c r="D2904">
-        <v>56.75</v>
+        <v>56.25</v>
       </c>
       <c r="E2904" t="s">
         <v>2148</v>
@@ -56209,7 +56209,7 @@
         <v>1</v>
       </c>
       <c r="D2905">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E2905" t="s">
         <v>2147</v>
@@ -56770,7 +56770,7 @@
         <v>3</v>
       </c>
       <c r="D2938">
-        <v>48.4440625</v>
+        <v>48.381875</v>
       </c>
       <c r="E2938" t="s">
         <v>2148</v>
@@ -56787,7 +56787,7 @@
         <v>1</v>
       </c>
       <c r="D2939">
-        <v>581.32875</v>
+        <v>580.5825</v>
       </c>
       <c r="E2939" t="s">
         <v>2147</v>
@@ -57008,7 +57008,7 @@
         <v>2</v>
       </c>
       <c r="D2952">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E2952" t="s">
         <v>2147</v>
@@ -57654,7 +57654,7 @@
         <v>3</v>
       </c>
       <c r="D2990">
-        <v>847.5</v>
+        <v>843.75</v>
       </c>
       <c r="E2990" t="s">
         <v>2148</v>
@@ -57671,7 +57671,7 @@
         <v>1</v>
       </c>
       <c r="D2991">
-        <v>5085</v>
+        <v>5062.5</v>
       </c>
       <c r="E2991" t="s">
         <v>2147</v>
@@ -57722,7 +57722,7 @@
         <v>3</v>
       </c>
       <c r="D2994">
-        <v>154.349375</v>
+        <v>153.6653125</v>
       </c>
       <c r="E2994" t="s">
         <v>2148</v>
@@ -57739,7 +57739,7 @@
         <v>1</v>
       </c>
       <c r="D2995">
-        <v>1852.1925</v>
+        <v>1843.98375</v>
       </c>
       <c r="E2995" t="s">
         <v>2147</v>
@@ -57790,7 +57790,7 @@
         <v>3</v>
       </c>
       <c r="D2998">
-        <v>83.25</v>
+        <v>83</v>
       </c>
       <c r="E2998" t="s">
         <v>2148</v>
@@ -57807,7 +57807,7 @@
         <v>1</v>
       </c>
       <c r="D2999">
-        <v>499.5</v>
+        <v>498</v>
       </c>
       <c r="E2999" t="s">
         <v>2147</v>
@@ -58198,7 +58198,7 @@
         <v>1</v>
       </c>
       <c r="D3022">
-        <v>157.9088719027139</v>
+        <v>157.4304526462653</v>
       </c>
       <c r="E3022" t="s">
         <v>2147</v>
@@ -58266,7 +58266,7 @@
         <v>1</v>
       </c>
       <c r="D3026">
-        <v>161.0419067330323</v>
+        <v>160.3788442960029</v>
       </c>
       <c r="E3026" t="s">
         <v>2147</v>
@@ -58283,7 +58283,7 @@
         <v>1</v>
       </c>
       <c r="D3027">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E3027" t="s">
         <v>2147</v>
@@ -58300,7 +58300,7 @@
         <v>1</v>
       </c>
       <c r="D3028">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E3028" t="s">
         <v>2147</v>
@@ -58317,7 +58317,7 @@
         <v>1</v>
       </c>
       <c r="D3029">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E3029" t="s">
         <v>2147</v>
@@ -58334,7 +58334,7 @@
         <v>1</v>
       </c>
       <c r="D3030">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E3030" t="s">
         <v>2147</v>
@@ -58351,7 +58351,7 @@
         <v>1</v>
       </c>
       <c r="D3031">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E3031" t="s">
         <v>2147</v>
@@ -58708,7 +58708,7 @@
         <v>3</v>
       </c>
       <c r="D3052">
-        <v>137.55875</v>
+        <v>137.8696875</v>
       </c>
       <c r="E3052" t="s">
         <v>2148</v>
@@ -58725,7 +58725,7 @@
         <v>1</v>
       </c>
       <c r="D3053">
-        <v>2751.175</v>
+        <v>2757.39375</v>
       </c>
       <c r="E3053" t="s">
         <v>2147</v>
@@ -58742,7 +58742,7 @@
         <v>2</v>
       </c>
       <c r="D3054">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E3054" t="s">
         <v>2147</v>
@@ -58759,7 +58759,7 @@
         <v>2</v>
       </c>
       <c r="D3055">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E3055" t="s">
         <v>2147</v>
@@ -58776,7 +58776,7 @@
         <v>2</v>
       </c>
       <c r="D3056">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E3056" t="s">
         <v>2147</v>
@@ -58793,7 +58793,7 @@
         <v>2</v>
       </c>
       <c r="D3057">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E3057" t="s">
         <v>2147</v>
@@ -58810,7 +58810,7 @@
         <v>2</v>
       </c>
       <c r="D3058">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E3058" t="s">
         <v>2147</v>
@@ -58827,7 +58827,7 @@
         <v>2</v>
       </c>
       <c r="D3059">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3059" t="s">
         <v>2147</v>
@@ -58844,7 +58844,7 @@
         <v>2</v>
       </c>
       <c r="D3060">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3060" t="s">
         <v>2147</v>
@@ -58861,7 +58861,7 @@
         <v>2</v>
       </c>
       <c r="D3061">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3061" t="s">
         <v>2147</v>
@@ -58878,7 +58878,7 @@
         <v>2</v>
       </c>
       <c r="D3062">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3062" t="s">
         <v>2147</v>
@@ -58895,7 +58895,7 @@
         <v>2</v>
       </c>
       <c r="D3063">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3063" t="s">
         <v>2147</v>
@@ -59745,7 +59745,7 @@
         <v>2</v>
       </c>
       <c r="D3113">
-        <v>263.7371875</v>
+        <v>263.92375</v>
       </c>
       <c r="E3113" t="s">
         <v>2147</v>
@@ -59932,7 +59932,7 @@
         <v>1</v>
       </c>
       <c r="D3124">
-        <v>234.75</v>
+        <v>233.75</v>
       </c>
       <c r="E3124" t="s">
         <v>2147</v>
@@ -60408,7 +60408,7 @@
         <v>10</v>
       </c>
       <c r="D3152">
-        <v>118.5</v>
+        <v>120</v>
       </c>
       <c r="E3152" t="s">
         <v>2148</v>
@@ -60425,7 +60425,7 @@
         <v>1</v>
       </c>
       <c r="D3153">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E3153" t="s">
         <v>2147</v>
@@ -60765,7 +60765,7 @@
         <v>2</v>
       </c>
       <c r="D3173">
-        <v>263.675</v>
+        <v>263.053125</v>
       </c>
       <c r="E3173" t="s">
         <v>2147</v>
@@ -61020,7 +61020,7 @@
         <v>3</v>
       </c>
       <c r="D3188">
-        <v>114.8255241755796</v>
+        <v>114.7892128847214</v>
       </c>
       <c r="E3188" t="s">
         <v>2148</v>
@@ -61037,7 +61037,7 @@
         <v>1</v>
       </c>
       <c r="D3189">
-        <v>1148.255241755796</v>
+        <v>1147.892128847214</v>
       </c>
       <c r="E3189" t="s">
         <v>2147</v>
@@ -61054,7 +61054,7 @@
         <v>3</v>
       </c>
       <c r="D3190">
-        <v>114.7534520055204</v>
+        <v>114.727415187672</v>
       </c>
       <c r="E3190" t="s">
         <v>2148</v>
@@ -61071,7 +61071,7 @@
         <v>1</v>
       </c>
       <c r="D3191">
-        <v>1147.534520055204</v>
+        <v>1147.27415187672</v>
       </c>
       <c r="E3191" t="s">
         <v>2147</v>
@@ -61105,7 +61105,7 @@
         <v>2</v>
       </c>
       <c r="D3193">
-        <v>303</v>
+        <v>300.75</v>
       </c>
       <c r="E3193" t="s">
         <v>2147</v>
@@ -61360,7 +61360,7 @@
         <v>3</v>
       </c>
       <c r="D3208">
-        <v>24.02796093231283</v>
+        <v>24.0265308751951</v>
       </c>
       <c r="E3208" t="s">
         <v>2148</v>
@@ -61377,7 +61377,7 @@
         <v>1</v>
       </c>
       <c r="D3209">
-        <v>288.3355311877539</v>
+        <v>288.3183705023412</v>
       </c>
       <c r="E3209" t="s">
         <v>2147</v>
@@ -61564,7 +61564,7 @@
         <v>3</v>
       </c>
       <c r="D3220">
-        <v>90.68472308296815</v>
+        <v>90.72538684744798</v>
       </c>
       <c r="E3220" t="s">
         <v>2148</v>
@@ -61581,7 +61581,7 @@
         <v>1</v>
       </c>
       <c r="D3221">
-        <v>1088.216676995618</v>
+        <v>1088.704642169376</v>
       </c>
       <c r="E3221" t="s">
         <v>2147</v>
@@ -61649,7 +61649,7 @@
         <v>3</v>
       </c>
       <c r="D3225">
-        <v>106.340625</v>
+        <v>106.589375</v>
       </c>
       <c r="E3225" t="s">
         <v>2148</v>
@@ -61666,7 +61666,7 @@
         <v>1</v>
       </c>
       <c r="D3226">
-        <v>638.04375</v>
+        <v>639.53625</v>
       </c>
       <c r="E3226" t="s">
         <v>2147</v>
@@ -61751,7 +61751,7 @@
         <v>3</v>
       </c>
       <c r="D3231">
-        <v>63.5</v>
+        <v>63.75</v>
       </c>
       <c r="E3231" t="s">
         <v>2148</v>
@@ -61768,7 +61768,7 @@
         <v>1</v>
       </c>
       <c r="D3232">
-        <v>381</v>
+        <v>382.5</v>
       </c>
       <c r="E3232" t="s">
         <v>2147</v>
@@ -61955,7 +61955,7 @@
         <v>3</v>
       </c>
       <c r="D3243">
-        <v>95.32134919846936</v>
+        <v>95.7512064712969</v>
       </c>
       <c r="E3243" t="s">
         <v>2148</v>
@@ -61972,7 +61972,7 @@
         <v>1</v>
       </c>
       <c r="D3244">
-        <v>381.2853967938775</v>
+        <v>383.0048258851876</v>
       </c>
       <c r="E3244" t="s">
         <v>2147</v>
@@ -62125,7 +62125,7 @@
         <v>1</v>
       </c>
       <c r="D3253">
-        <v>840.7566177808964</v>
+        <v>840.7566177808965</v>
       </c>
       <c r="E3253" t="s">
         <v>2147</v>
@@ -62210,7 +62210,7 @@
         <v>2</v>
       </c>
       <c r="D3258">
-        <v>400</v>
+        <v>399.5</v>
       </c>
       <c r="E3258" t="s">
         <v>2147</v>
@@ -62380,7 +62380,7 @@
         <v>1</v>
       </c>
       <c r="D3268">
-        <v>341.25</v>
+        <v>342.75</v>
       </c>
       <c r="E3268" t="s">
         <v>2147</v>
@@ -63043,7 +63043,7 @@
         <v>3</v>
       </c>
       <c r="D3307">
-        <v>234.1672192313127</v>
+        <v>232.5404151731023</v>
       </c>
       <c r="E3307" t="s">
         <v>2148</v>
@@ -63060,7 +63060,7 @@
         <v>1</v>
       </c>
       <c r="D3308">
-        <v>2810.006630775752</v>
+        <v>2790.484982077228</v>
       </c>
       <c r="E3308" t="s">
         <v>2147</v>
@@ -63077,7 +63077,7 @@
         <v>3</v>
       </c>
       <c r="D3309">
-        <v>233.051691340374</v>
+        <v>231.4486523677004</v>
       </c>
       <c r="E3309" t="s">
         <v>2148</v>
@@ -63094,7 +63094,7 @@
         <v>1</v>
       </c>
       <c r="D3310">
-        <v>2796.620296084488</v>
+        <v>2777.383828412404</v>
       </c>
       <c r="E3310" t="s">
         <v>2147</v>
